--- a/Data/Model Comparisons/shap_importance_df.xlsx
+++ b/Data/Model Comparisons/shap_importance_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/EEG_ML_Pipeline/Data/Model Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{223ADD20-7326-3445-BEB0-26BD699D98F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6DD3ED-9FCC-1C4C-945D-22B48BF50C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23640" yWindow="5400" windowWidth="33520" windowHeight="17440" xr2:uid="{FFC9456A-B5C5-4D45-9704-57F996F0CA5C}"/>
+    <workbookView xWindow="17640" yWindow="1620" windowWidth="33560" windowHeight="21220" xr2:uid="{FFC9456A-B5C5-4D45-9704-57F996F0CA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="shap_importance_df" sheetId="1" r:id="rId1"/>
@@ -3659,7 +3659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3845,6 +3845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4006,12 +4012,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4390,7 +4398,7 @@
   <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,7 +4710,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -4718,7 +4726,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -4738,7 +4746,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B27">
